--- a/Discharge/Discharge_2019/Discharge_Aug08.xlsx
+++ b/Discharge/Discharge_2019/Discharge_Aug08.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B242D6FE-7F67-D14C-AADF-3E6EB51AE215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0CD3EAC-D403-C942-B0D6-0BE4A5340AF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1960" windowWidth="17140" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="440" yWindow="1960" windowWidth="17140" windowHeight="12860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stn1" sheetId="3" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="16">
   <si>
     <t>station 4</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>New depth</t>
+  </si>
+  <si>
+    <t>new depth</t>
   </si>
 </sst>
 </file>
@@ -409,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1051,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1259,7 +1262,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1303,7 +1306,7 @@
         <v>5.6728100000000047E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1323,7 +1326,7 @@
         <v>6.8639999999999966E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1.05</v>
       </c>
@@ -1343,7 +1346,7 @@
         <v>1.9905600000000106E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.1000000000000001</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>1.5014999999999948E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.1499999999999999</v>
       </c>
@@ -1383,7 +1386,7 @@
         <v>9.1090999999999687E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.2</v>
       </c>
@@ -1403,7 +1406,7 @@
         <v>5.834400000000031E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.25</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.3</v>
       </c>
@@ -1443,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.35</v>
       </c>
@@ -1463,10 +1466,215 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>A24-A16</f>
         <v>0.40000000000000013</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.95</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>C16*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>A29</f>
+        <v>0.95</v>
+      </c>
+      <c r="F29">
+        <f>SUM(E29:E37)</f>
+        <v>1.4408937400000012E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0.2288</v>
+      </c>
+      <c r="C30">
+        <f t="shared" ref="C30:C37" si="5">C17*2.54</f>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D30">
+        <f>(A30+(A31-A30)/2)</f>
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="E30">
+        <f>(D30-D29)*(B30)*C30</f>
+        <v>1.7434559999999993E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1.05</v>
+      </c>
+      <c r="B31">
+        <v>0.16588</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
+        <v>0.60960000000000003</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D37" si="6">(A31+(A32-A31)/2)</f>
+        <v>1.0750000000000002</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ref="E31:E37" si="7">(D31-D30)*(B31)*C31</f>
+        <v>5.0560224000000273E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B32">
+        <v>0.12012</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="6"/>
+        <v>1.125</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="7"/>
+        <v>3.8138099999999869E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B33">
+        <v>7.4360000000000009E-2</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
+        <v>0.62229999999999996</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="6"/>
+        <v>1.1749999999999998</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="7"/>
+        <v>2.3137113999999919E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1.2</v>
+      </c>
+      <c r="B34">
+        <v>4.5760000000000002E-2</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
+        <v>0.64770000000000005</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="6"/>
+        <v>1.2250000000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="7"/>
+        <v>1.481937600000008E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1.25</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="6"/>
+        <v>1.2749999999999999</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1.3</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="6"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1.35</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="6"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1909,21 +2117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -2107,10 +2300,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789F2E93-34FA-443C-9CF3-8A69ACF8596E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEFC09F0-C582-4EEF-8F96-A90FD3A1E728}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2132,19 +2350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEFC09F0-C582-4EEF-8F96-A90FD3A1E728}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{789F2E93-34FA-443C-9CF3-8A69ACF8596E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>